--- a/artfynd/A 1135-2023.xlsx
+++ b/artfynd/A 1135-2023.xlsx
@@ -2510,10 +2510,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111356612</v>
+        <v>111359889</v>
       </c>
       <c r="B17" t="n">
-        <v>90666</v>
+        <v>95538</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2526,26 +2526,27 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4364</v>
+        <v>221941</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2553,10 +2554,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>491951.0498785287</v>
+        <v>491909.0202035823</v>
       </c>
       <c r="R17" t="n">
-        <v>6785511.741186595</v>
+        <v>6785498.341940038</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2626,10 +2627,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111359889</v>
+        <v>111356612</v>
       </c>
       <c r="B18" t="n">
-        <v>95538</v>
+        <v>90666</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2642,27 +2643,26 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>221941</v>
+        <v>4364</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2670,10 +2670,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>491909.0202035823</v>
+        <v>491951.0498785287</v>
       </c>
       <c r="R18" t="n">
-        <v>6785498.341940038</v>
+        <v>6785511.741186595</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2743,10 +2743,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111491657</v>
+        <v>111491649</v>
       </c>
       <c r="B19" t="n">
-        <v>89425</v>
+        <v>90666</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2755,25 +2755,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5442</v>
+        <v>4364</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2786,10 +2786,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>491946.35724353</v>
+        <v>491979.6153062462</v>
       </c>
       <c r="R19" t="n">
-        <v>6785570.554389503</v>
+        <v>6785548.307010972</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -2836,7 +2836,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>vid bohål</t>
+          <t>mycel</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2864,10 +2864,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111491681</v>
+        <v>111491680</v>
       </c>
       <c r="B20" t="n">
-        <v>90666</v>
+        <v>56414</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2876,30 +2876,35 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4364</v>
+        <v>100049</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2955,18 +2960,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>äldre fruktkreopp</t>
-        </is>
-      </c>
       <c r="AD20" t="b">
         <v>0</v>
       </c>
       <c r="AE20" t="b">
         <v>0</v>
       </c>
-      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
@@ -2985,7 +2984,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111491649</v>
+        <v>111491681</v>
       </c>
       <c r="B21" t="n">
         <v>90666</v>
@@ -3028,10 +3027,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>491979.6153062462</v>
+        <v>491929.8523854768</v>
       </c>
       <c r="R21" t="n">
-        <v>6785548.307010972</v>
+        <v>6785530.587422797</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -3078,7 +3077,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>mycel</t>
+          <t>äldre fruktkreopp</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3106,10 +3105,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111491639</v>
+        <v>111491641</v>
       </c>
       <c r="B22" t="n">
-        <v>8377</v>
+        <v>90666</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3122,32 +3121,30 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>106545</v>
+        <v>4364</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3205,7 +3202,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>Spridd och riklig i området</t>
+          <t>Minst 4 platser i området</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3233,10 +3230,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111491641</v>
+        <v>111491685</v>
       </c>
       <c r="B23" t="n">
-        <v>90666</v>
+        <v>88819</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3249,28 +3246,24 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4364</v>
+        <v>5685</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Gullgröppa</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Pseudomerulius aureus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>(Fr.) Jülich</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
@@ -3280,13 +3273,13 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>491993.9996831641</v>
+        <v>491909.4940688942</v>
       </c>
       <c r="R23" t="n">
-        <v>6785505.377163783</v>
+        <v>6785494.484901348</v>
       </c>
       <c r="S23" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3326,11 +3319,6 @@
       <c r="AB23" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>Minst 4 platser i området</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3474,10 +3462,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111491680</v>
+        <v>111491657</v>
       </c>
       <c r="B25" t="n">
-        <v>56414</v>
+        <v>89425</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3490,31 +3478,26 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100049</v>
+        <v>5442</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
@@ -3522,10 +3505,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>491929.8523854768</v>
+        <v>491946.35724353</v>
       </c>
       <c r="R25" t="n">
-        <v>6785530.587422797</v>
+        <v>6785570.554389503</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3570,12 +3553,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>vid bohål</t>
+        </is>
+      </c>
       <c r="AD25" t="b">
         <v>0</v>
       </c>
       <c r="AE25" t="b">
         <v>0</v>
       </c>
+      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
@@ -3594,10 +3583,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111491685</v>
+        <v>111491639</v>
       </c>
       <c r="B26" t="n">
-        <v>88819</v>
+        <v>8377</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3610,26 +3599,32 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5685</v>
+        <v>106545</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Gullgröppa</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Pseudomerulius aureus</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Fr.) Jülich</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
@@ -3637,13 +3632,13 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>491909.4940688942</v>
+        <v>491993.9996831641</v>
       </c>
       <c r="R26" t="n">
-        <v>6785494.484901348</v>
+        <v>6785505.377163783</v>
       </c>
       <c r="S26" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3683,6 +3678,11 @@
       <c r="AB26" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Spridd och riklig i området</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3710,10 +3710,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111612738</v>
+        <v>111612720</v>
       </c>
       <c r="B27" t="n">
-        <v>56414</v>
+        <v>88924</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3722,35 +3722,34 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100049</v>
+        <v>256703</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tallfingersvamp</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Ramaria eosanguinea</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
+          <t>R.H.Petersen</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
@@ -3758,13 +3757,13 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>491952.3910193561</v>
+        <v>491993.9996831641</v>
       </c>
       <c r="R27" t="n">
-        <v>6785464.984647369</v>
+        <v>6785505.377163783</v>
       </c>
       <c r="S27" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3812,6 +3811,7 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
+      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
@@ -3830,10 +3830,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111612720</v>
+        <v>111612736</v>
       </c>
       <c r="B28" t="n">
-        <v>88924</v>
+        <v>56398</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3842,34 +3842,35 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>256703</v>
+        <v>100109</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tallfingersvamp</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Ramaria eosanguinea</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
@@ -3877,13 +3878,13 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>491993.9996831641</v>
+        <v>491952.3910193561</v>
       </c>
       <c r="R28" t="n">
-        <v>6785505.377163783</v>
+        <v>6785464.984647369</v>
       </c>
       <c r="S28" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3931,7 +3932,6 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
-      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
@@ -3950,10 +3950,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111612736</v>
+        <v>111612738</v>
       </c>
       <c r="B29" t="n">
-        <v>56398</v>
+        <v>56414</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3966,16 +3966,16 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -4311,10 +4311,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111682665</v>
+        <v>111682658</v>
       </c>
       <c r="B32" t="n">
-        <v>90682</v>
+        <v>90689</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4327,21 +4327,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>2059</v>
+        <v>5966</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4432,10 +4432,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111682769</v>
+        <v>111682665</v>
       </c>
       <c r="B33" t="n">
-        <v>89980</v>
+        <v>90682</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4444,25 +4444,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1179</v>
+        <v>2059</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Gräddticka</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Perenniporia subacida</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Peck) Donk</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4475,10 +4475,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>491952.3910193561</v>
+        <v>492024.0709204427</v>
       </c>
       <c r="R33" t="n">
-        <v>6785464.984647369</v>
+        <v>6785567.485207787</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4523,6 +4523,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>Längs stigen/traktorspåret strax utanför gränsmarkeringen som syns på träden</t>
+        </is>
+      </c>
       <c r="AD33" t="b">
         <v>0</v>
       </c>
@@ -4532,21 +4537,6 @@
       <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ33" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK33" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO33" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
@@ -4563,10 +4553,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111682658</v>
+        <v>111682769</v>
       </c>
       <c r="B34" t="n">
-        <v>90689</v>
+        <v>89980</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4575,25 +4565,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>5966</v>
+        <v>1179</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Gräddticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Perenniporia subacida</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Peck) Donk</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4606,10 +4596,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>492024.0709204427</v>
+        <v>491952.3910193561</v>
       </c>
       <c r="R34" t="n">
-        <v>6785567.485207787</v>
+        <v>6785464.984647369</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4654,11 +4644,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>Längs stigen/traktorspåret strax utanför gränsmarkeringen som syns på träden</t>
-        </is>
-      </c>
       <c r="AD34" t="b">
         <v>0</v>
       </c>
@@ -4668,6 +4653,21 @@
       <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ34" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK34" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO34" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">

--- a/artfynd/A 1135-2023.xlsx
+++ b/artfynd/A 1135-2023.xlsx
@@ -2282,10 +2282,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111356614</v>
+        <v>111356613</v>
       </c>
       <c r="B15" t="n">
-        <v>96348</v>
+        <v>88819</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2294,45 +2294,41 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>220787</v>
+        <v>5685</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Gullgröppa</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pseudomerulius aureus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
+          <t>(Fr.) Jülich</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Långtjärnen, Dlr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>491909.0202035823</v>
+        <v>491932.6359417734</v>
       </c>
       <c r="R15" t="n">
-        <v>6785498.341940038</v>
+        <v>6785481.417835217</v>
       </c>
       <c r="S15" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2398,10 +2394,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111356613</v>
+        <v>111356614</v>
       </c>
       <c r="B16" t="n">
-        <v>88819</v>
+        <v>96348</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2410,41 +2406,45 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5685</v>
+        <v>220787</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Gullgröppa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Pseudomerulius aureus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Jülich</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr">
         <is>
           <t>Långtjärnen, Dlr</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>491932.6359417734</v>
+        <v>491909.0202035823</v>
       </c>
       <c r="R16" t="n">
-        <v>6785481.417835217</v>
+        <v>6785498.341940038</v>
       </c>
       <c r="S16" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2743,10 +2743,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111491649</v>
+        <v>111491680</v>
       </c>
       <c r="B19" t="n">
-        <v>90666</v>
+        <v>56414</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2755,30 +2755,35 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4364</v>
+        <v>100049</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2786,10 +2791,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>491979.6153062462</v>
+        <v>491929.8523854768</v>
       </c>
       <c r="R19" t="n">
-        <v>6785548.307010972</v>
+        <v>6785530.587422797</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -2834,18 +2839,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2864,10 +2863,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111491680</v>
+        <v>111491685</v>
       </c>
       <c r="B20" t="n">
-        <v>56414</v>
+        <v>88819</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2876,35 +2875,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100049</v>
+        <v>5685</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Gullgröppa</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Pseudomerulius aureus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Jülich</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2912,10 +2906,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>491929.8523854768</v>
+        <v>491909.4940688942</v>
       </c>
       <c r="R20" t="n">
-        <v>6785530.587422797</v>
+        <v>6785494.484901348</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -2966,6 +2960,7 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
@@ -2984,10 +2979,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111491681</v>
+        <v>111491639</v>
       </c>
       <c r="B21" t="n">
-        <v>90666</v>
+        <v>8377</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3000,26 +2995,32 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4364</v>
+        <v>106545</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -3027,13 +3028,13 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>491929.8523854768</v>
+        <v>491993.9996831641</v>
       </c>
       <c r="R21" t="n">
-        <v>6785530.587422797</v>
+        <v>6785505.377163783</v>
       </c>
       <c r="S21" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3077,7 +3078,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>äldre fruktkreopp</t>
+          <t>Spridd och riklig i området</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3230,10 +3231,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111491685</v>
+        <v>111491662</v>
       </c>
       <c r="B23" t="n">
-        <v>88819</v>
+        <v>77515</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3242,25 +3243,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5685</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Gullgröppa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Pseudomerulius aureus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.) Jülich</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3273,10 +3274,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>491909.4940688942</v>
+        <v>491969.9043757546</v>
       </c>
       <c r="R23" t="n">
-        <v>6785494.484901348</v>
+        <v>6785523.747805699</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3346,10 +3347,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111491662</v>
+        <v>111491649</v>
       </c>
       <c r="B24" t="n">
-        <v>77515</v>
+        <v>90666</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3358,25 +3359,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>4364</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3389,10 +3390,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>491969.9043757546</v>
+        <v>491979.6153062462</v>
       </c>
       <c r="R24" t="n">
-        <v>6785523.747805699</v>
+        <v>6785548.307010972</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3435,6 +3436,11 @@
       <c r="AB24" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>mycel</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3583,10 +3589,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111491639</v>
+        <v>111491681</v>
       </c>
       <c r="B26" t="n">
-        <v>8377</v>
+        <v>90666</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3599,32 +3605,26 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>106545</v>
+        <v>4364</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
@@ -3632,13 +3632,13 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>491993.9996831641</v>
+        <v>491929.8523854768</v>
       </c>
       <c r="R26" t="n">
-        <v>6785505.377163783</v>
+        <v>6785530.587422797</v>
       </c>
       <c r="S26" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>Spridd och riklig i området</t>
+          <t>äldre fruktkreopp</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3830,10 +3830,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111612736</v>
+        <v>111612726</v>
       </c>
       <c r="B28" t="n">
-        <v>56398</v>
+        <v>90168</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3842,35 +3842,30 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>100109</v>
+        <v>717</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Borsttagging</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Gloiodon strigosus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Schwein. : Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
@@ -3932,6 +3927,7 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
+      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
@@ -3950,10 +3946,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111612738</v>
+        <v>111612736</v>
       </c>
       <c r="B29" t="n">
-        <v>56414</v>
+        <v>56398</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3966,16 +3962,16 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -4070,10 +4066,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111612726</v>
+        <v>111612738</v>
       </c>
       <c r="B30" t="n">
-        <v>90168</v>
+        <v>56414</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4082,30 +4078,35 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>717</v>
+        <v>100049</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Borsttagging</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Gloiodon strigosus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Schwein. : Fr.) P. Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
@@ -4167,7 +4168,6 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
-      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
@@ -4311,10 +4311,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111682658</v>
+        <v>111682652</v>
       </c>
       <c r="B32" t="n">
-        <v>90689</v>
+        <v>90709</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4327,21 +4327,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>5966</v>
+        <v>5448</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4432,10 +4432,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111682665</v>
+        <v>111682769</v>
       </c>
       <c r="B33" t="n">
-        <v>90682</v>
+        <v>89980</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4444,25 +4444,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2059</v>
+        <v>1179</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Gräddticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Perenniporia subacida</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Peck) Donk</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4475,10 +4475,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>492024.0709204427</v>
+        <v>491952.3910193561</v>
       </c>
       <c r="R33" t="n">
-        <v>6785567.485207787</v>
+        <v>6785464.984647369</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4523,11 +4523,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>Längs stigen/traktorspåret strax utanför gränsmarkeringen som syns på träden</t>
-        </is>
-      </c>
       <c r="AD33" t="b">
         <v>0</v>
       </c>
@@ -4537,6 +4532,21 @@
       <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ33" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK33" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO33" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
@@ -4553,10 +4563,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111682769</v>
+        <v>111682665</v>
       </c>
       <c r="B34" t="n">
-        <v>89980</v>
+        <v>90682</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4565,25 +4575,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1179</v>
+        <v>2059</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Gräddticka</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Perenniporia subacida</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Peck) Donk</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4596,10 +4606,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>491952.3910193561</v>
+        <v>492024.0709204427</v>
       </c>
       <c r="R34" t="n">
-        <v>6785464.984647369</v>
+        <v>6785567.485207787</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4644,6 +4654,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>Längs stigen/traktorspåret strax utanför gränsmarkeringen som syns på träden</t>
+        </is>
+      </c>
       <c r="AD34" t="b">
         <v>0</v>
       </c>
@@ -4653,21 +4668,6 @@
       <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ34" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK34" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO34" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
@@ -4684,10 +4684,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111682652</v>
+        <v>111682658</v>
       </c>
       <c r="B35" t="n">
-        <v>90709</v>
+        <v>90689</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4700,21 +4700,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5448</v>
+        <v>5966</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>

--- a/artfynd/A 1135-2023.xlsx
+++ b/artfynd/A 1135-2023.xlsx
@@ -2743,10 +2743,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111491680</v>
+        <v>111491685</v>
       </c>
       <c r="B19" t="n">
-        <v>56414</v>
+        <v>88819</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2755,35 +2755,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100049</v>
+        <v>5685</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Gullgröppa</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Pseudomerulius aureus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Jülich</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2791,10 +2786,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>491929.8523854768</v>
+        <v>491909.4940688942</v>
       </c>
       <c r="R19" t="n">
-        <v>6785530.587422797</v>
+        <v>6785494.484901348</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -2845,6 +2840,7 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2863,10 +2859,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111491685</v>
+        <v>111491649</v>
       </c>
       <c r="B20" t="n">
-        <v>88819</v>
+        <v>90666</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2879,21 +2875,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5685</v>
+        <v>4364</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Gullgröppa</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Pseudomerulius aureus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Jülich</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2906,10 +2902,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>491909.4940688942</v>
+        <v>491979.6153062462</v>
       </c>
       <c r="R20" t="n">
-        <v>6785494.484901348</v>
+        <v>6785548.307010972</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -2952,6 +2948,11 @@
       <c r="AB20" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>mycel</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2979,10 +2980,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111491639</v>
+        <v>111491662</v>
       </c>
       <c r="B21" t="n">
-        <v>8377</v>
+        <v>77515</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2991,36 +2992,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -3028,13 +3023,13 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>491993.9996831641</v>
+        <v>491969.9043757546</v>
       </c>
       <c r="R21" t="n">
-        <v>6785505.377163783</v>
+        <v>6785523.747805699</v>
       </c>
       <c r="S21" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3074,11 +3069,6 @@
       <c r="AB21" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>Spridd och riklig i området</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3106,10 +3096,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111491641</v>
+        <v>111491639</v>
       </c>
       <c r="B22" t="n">
-        <v>90666</v>
+        <v>8377</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3122,30 +3112,32 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4364</v>
+        <v>106545</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>(Hartig, 1834)</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3203,7 +3195,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>Minst 4 platser i området</t>
+          <t>Spridd och riklig i området</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3231,10 +3223,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111491662</v>
+        <v>111491657</v>
       </c>
       <c r="B23" t="n">
-        <v>77515</v>
+        <v>89425</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3247,21 +3239,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>5442</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3274,10 +3266,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>491969.9043757546</v>
+        <v>491946.35724353</v>
       </c>
       <c r="R23" t="n">
-        <v>6785523.747805699</v>
+        <v>6785570.554389503</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3320,6 +3312,11 @@
       <c r="AB23" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>vid bohål</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3347,10 +3344,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111491649</v>
+        <v>111491680</v>
       </c>
       <c r="B24" t="n">
-        <v>90666</v>
+        <v>56414</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3359,30 +3356,35 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4364</v>
+        <v>100049</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3390,10 +3392,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>491979.6153062462</v>
+        <v>491929.8523854768</v>
       </c>
       <c r="R24" t="n">
-        <v>6785548.307010972</v>
+        <v>6785530.587422797</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3438,18 +3440,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
       <c r="AD24" t="b">
         <v>0</v>
       </c>
       <c r="AE24" t="b">
         <v>0</v>
       </c>
-      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -3468,10 +3464,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111491657</v>
+        <v>111491681</v>
       </c>
       <c r="B25" t="n">
-        <v>89425</v>
+        <v>90666</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3480,25 +3476,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5442</v>
+        <v>4364</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3511,10 +3507,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>491946.35724353</v>
+        <v>491929.8523854768</v>
       </c>
       <c r="R25" t="n">
-        <v>6785570.554389503</v>
+        <v>6785530.587422797</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3561,7 +3557,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>vid bohål</t>
+          <t>äldre fruktkreopp</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3589,7 +3585,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111491681</v>
+        <v>111491641</v>
       </c>
       <c r="B26" t="n">
         <v>90666</v>
@@ -3622,7 +3618,11 @@
           <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
@@ -3632,13 +3632,13 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>491929.8523854768</v>
+        <v>491993.9996831641</v>
       </c>
       <c r="R26" t="n">
-        <v>6785530.587422797</v>
+        <v>6785505.377163783</v>
       </c>
       <c r="S26" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>äldre fruktkreopp</t>
+          <t>Minst 4 platser i området</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3710,10 +3710,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111612720</v>
+        <v>111612726</v>
       </c>
       <c r="B27" t="n">
-        <v>88924</v>
+        <v>90168</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3722,32 +3722,28 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>256703</v>
+        <v>717</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tallfingersvamp</t>
+          <t>Borsttagging</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Ramaria eosanguinea</t>
+          <t>Gloiodon strigosus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(Schwein. : Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
@@ -3757,13 +3753,13 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>491993.9996831641</v>
+        <v>491952.3910193561</v>
       </c>
       <c r="R27" t="n">
-        <v>6785505.377163783</v>
+        <v>6785464.984647369</v>
       </c>
       <c r="S27" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3830,10 +3826,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111612726</v>
+        <v>111612720</v>
       </c>
       <c r="B28" t="n">
-        <v>90168</v>
+        <v>88924</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3842,28 +3838,32 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>717</v>
+        <v>256703</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Borsttagging</t>
+          <t>Tallfingersvamp</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Gloiodon strigosus</t>
+          <t>Ramaria eosanguinea</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Schwein. : Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr"/>
+          <t>R.H.Petersen</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
@@ -3873,13 +3873,13 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>491952.3910193561</v>
+        <v>491993.9996831641</v>
       </c>
       <c r="R28" t="n">
-        <v>6785464.984647369</v>
+        <v>6785505.377163783</v>
       </c>
       <c r="S28" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -4186,10 +4186,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111682655</v>
+        <v>111682658</v>
       </c>
       <c r="B31" t="n">
-        <v>90658</v>
+        <v>90689</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4202,28 +4202,24 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>4361</v>
+        <v>5966</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
@@ -4311,10 +4307,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111682652</v>
+        <v>111682769</v>
       </c>
       <c r="B32" t="n">
-        <v>90709</v>
+        <v>89980</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4323,25 +4319,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>5448</v>
+        <v>1179</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Gräddticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Perenniporia subacida</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Peck) Donk</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4354,10 +4350,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>492024.0709204427</v>
+        <v>491952.3910193561</v>
       </c>
       <c r="R32" t="n">
-        <v>6785567.485207787</v>
+        <v>6785464.984647369</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4402,11 +4398,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>Längs stigen/traktorspåret strax utanför gränsmarkeringen som syns på träden</t>
-        </is>
-      </c>
       <c r="AD32" t="b">
         <v>0</v>
       </c>
@@ -4416,6 +4407,21 @@
       <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ32" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK32" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO32" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
@@ -4432,10 +4438,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111682769</v>
+        <v>111682655</v>
       </c>
       <c r="B33" t="n">
-        <v>89980</v>
+        <v>90658</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4444,28 +4450,32 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1179</v>
+        <v>4361</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Gräddticka</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Perenniporia subacida</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Peck) Donk</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr"/>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
@@ -4475,10 +4485,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>491952.3910193561</v>
+        <v>492024.0709204427</v>
       </c>
       <c r="R33" t="n">
-        <v>6785464.984647369</v>
+        <v>6785567.485207787</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4523,6 +4533,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>Längs stigen/traktorspåret strax utanför gränsmarkeringen som syns på träden</t>
+        </is>
+      </c>
       <c r="AD33" t="b">
         <v>0</v>
       </c>
@@ -4532,21 +4547,6 @@
       <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ33" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK33" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO33" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
@@ -4563,10 +4563,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111682665</v>
+        <v>111682652</v>
       </c>
       <c r="B34" t="n">
-        <v>90682</v>
+        <v>90709</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4579,21 +4579,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2059</v>
+        <v>5448</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4684,10 +4684,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111682658</v>
+        <v>111682665</v>
       </c>
       <c r="B35" t="n">
-        <v>90689</v>
+        <v>90682</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4700,21 +4700,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5966</v>
+        <v>2059</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>

--- a/artfynd/A 1135-2023.xlsx
+++ b/artfynd/A 1135-2023.xlsx
@@ -2510,10 +2510,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111359889</v>
+        <v>111356612</v>
       </c>
       <c r="B17" t="n">
-        <v>95538</v>
+        <v>90666</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2526,27 +2526,26 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>221941</v>
+        <v>4364</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2554,10 +2553,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>491909.0202035823</v>
+        <v>491951.0498785287</v>
       </c>
       <c r="R17" t="n">
-        <v>6785498.341940038</v>
+        <v>6785511.741186595</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2627,10 +2626,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111356612</v>
+        <v>111359889</v>
       </c>
       <c r="B18" t="n">
-        <v>90666</v>
+        <v>95538</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2643,26 +2642,27 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4364</v>
+        <v>221941</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2670,10 +2670,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>491951.0498785287</v>
+        <v>491909.0202035823</v>
       </c>
       <c r="R18" t="n">
-        <v>6785511.741186595</v>
+        <v>6785498.341940038</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2743,10 +2743,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111491685</v>
+        <v>111491641</v>
       </c>
       <c r="B19" t="n">
-        <v>88819</v>
+        <v>90666</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2759,24 +2759,28 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5685</v>
+        <v>4364</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Gullgröppa</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Pseudomerulius aureus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Jülich</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr"/>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
@@ -2786,13 +2790,13 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>491909.4940688942</v>
+        <v>491993.9996831641</v>
       </c>
       <c r="R19" t="n">
-        <v>6785494.484901348</v>
+        <v>6785505.377163783</v>
       </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2832,6 +2836,11 @@
       <c r="AB19" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Minst 4 platser i området</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2859,10 +2868,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111491649</v>
+        <v>111491639</v>
       </c>
       <c r="B20" t="n">
-        <v>90666</v>
+        <v>8377</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2875,26 +2884,32 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4364</v>
+        <v>106545</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2902,13 +2917,13 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>491979.6153062462</v>
+        <v>491993.9996831641</v>
       </c>
       <c r="R20" t="n">
-        <v>6785548.307010972</v>
+        <v>6785505.377163783</v>
       </c>
       <c r="S20" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2952,7 +2967,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>mycel</t>
+          <t>Spridd och riklig i området</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2980,10 +2995,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111491662</v>
+        <v>111491657</v>
       </c>
       <c r="B21" t="n">
-        <v>77515</v>
+        <v>89425</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2996,21 +3011,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>5442</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -3023,10 +3038,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>491969.9043757546</v>
+        <v>491946.35724353</v>
       </c>
       <c r="R21" t="n">
-        <v>6785523.747805699</v>
+        <v>6785570.554389503</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -3069,6 +3084,11 @@
       <c r="AB21" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>vid bohål</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3096,10 +3116,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111491639</v>
+        <v>111491685</v>
       </c>
       <c r="B22" t="n">
-        <v>8377</v>
+        <v>88819</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3112,32 +3132,26 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>106545</v>
+        <v>5685</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Gullgröppa</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Pseudomerulius aureus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Fr.) Jülich</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3145,13 +3159,13 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>491993.9996831641</v>
+        <v>491909.4940688942</v>
       </c>
       <c r="R22" t="n">
-        <v>6785505.377163783</v>
+        <v>6785494.484901348</v>
       </c>
       <c r="S22" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3191,11 +3205,6 @@
       <c r="AB22" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>Spridd och riklig i området</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3223,10 +3232,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111491657</v>
+        <v>111491680</v>
       </c>
       <c r="B23" t="n">
-        <v>89425</v>
+        <v>56414</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3239,26 +3248,31 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5442</v>
+        <v>100049</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
@@ -3266,10 +3280,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>491946.35724353</v>
+        <v>491929.8523854768</v>
       </c>
       <c r="R23" t="n">
-        <v>6785570.554389503</v>
+        <v>6785530.587422797</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3314,18 +3328,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>vid bohål</t>
-        </is>
-      </c>
       <c r="AD23" t="b">
         <v>0</v>
       </c>
       <c r="AE23" t="b">
         <v>0</v>
       </c>
-      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
@@ -3344,10 +3352,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111491680</v>
+        <v>111491681</v>
       </c>
       <c r="B24" t="n">
-        <v>56414</v>
+        <v>90666</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3356,35 +3364,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100049</v>
+        <v>4364</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3440,12 +3443,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>äldre fruktkreopp</t>
+        </is>
+      </c>
       <c r="AD24" t="b">
         <v>0</v>
       </c>
       <c r="AE24" t="b">
         <v>0</v>
       </c>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -3464,10 +3473,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111491681</v>
+        <v>111491662</v>
       </c>
       <c r="B25" t="n">
-        <v>90666</v>
+        <v>77515</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3476,25 +3485,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3507,10 +3516,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>491929.8523854768</v>
+        <v>491969.9043757546</v>
       </c>
       <c r="R25" t="n">
-        <v>6785530.587422797</v>
+        <v>6785523.747805699</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3553,11 +3562,6 @@
       <c r="AB25" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>äldre fruktkreopp</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3585,7 +3589,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111491641</v>
+        <v>111491649</v>
       </c>
       <c r="B26" t="n">
         <v>90666</v>
@@ -3618,11 +3622,7 @@
           <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
@@ -3632,13 +3632,13 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>491993.9996831641</v>
+        <v>491979.6153062462</v>
       </c>
       <c r="R26" t="n">
-        <v>6785505.377163783</v>
+        <v>6785548.307010972</v>
       </c>
       <c r="S26" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>Minst 4 platser i området</t>
+          <t>mycel</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3710,10 +3710,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111612726</v>
+        <v>111612720</v>
       </c>
       <c r="B27" t="n">
-        <v>90168</v>
+        <v>88924</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3722,28 +3722,32 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>717</v>
+        <v>256703</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Borsttagging</t>
+          <t>Tallfingersvamp</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Gloiodon strigosus</t>
+          <t>Ramaria eosanguinea</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Schwein. : Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
+          <t>R.H.Petersen</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
@@ -3753,13 +3757,13 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>491952.3910193561</v>
+        <v>491993.9996831641</v>
       </c>
       <c r="R27" t="n">
-        <v>6785464.984647369</v>
+        <v>6785505.377163783</v>
       </c>
       <c r="S27" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3826,10 +3830,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111612720</v>
+        <v>111612726</v>
       </c>
       <c r="B28" t="n">
-        <v>88924</v>
+        <v>90168</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3838,32 +3842,28 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>256703</v>
+        <v>717</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tallfingersvamp</t>
+          <t>Borsttagging</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Ramaria eosanguinea</t>
+          <t>Gloiodon strigosus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(Schwein. : Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
@@ -3873,13 +3873,13 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>491993.9996831641</v>
+        <v>491952.3910193561</v>
       </c>
       <c r="R28" t="n">
-        <v>6785505.377163783</v>
+        <v>6785464.984647369</v>
       </c>
       <c r="S28" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -4186,10 +4186,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111682658</v>
+        <v>111682652</v>
       </c>
       <c r="B31" t="n">
-        <v>90689</v>
+        <v>90709</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4202,21 +4202,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5966</v>
+        <v>5448</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4438,10 +4438,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111682655</v>
+        <v>111682665</v>
       </c>
       <c r="B33" t="n">
-        <v>90658</v>
+        <v>90682</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4454,28 +4454,24 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>4361</v>
+        <v>2059</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
@@ -4563,10 +4559,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111682652</v>
+        <v>111682658</v>
       </c>
       <c r="B34" t="n">
-        <v>90709</v>
+        <v>90689</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4579,21 +4575,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>5448</v>
+        <v>5966</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4684,10 +4680,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111682665</v>
+        <v>111682655</v>
       </c>
       <c r="B35" t="n">
-        <v>90682</v>
+        <v>90658</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4700,24 +4696,28 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2059</v>
+        <v>4361</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr"/>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>

--- a/artfynd/A 1135-2023.xlsx
+++ b/artfynd/A 1135-2023.xlsx
@@ -2743,10 +2743,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111491641</v>
+        <v>111491685</v>
       </c>
       <c r="B19" t="n">
-        <v>90666</v>
+        <v>88819</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2759,28 +2759,24 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4364</v>
+        <v>5685</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Gullgröppa</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Pseudomerulius aureus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>(Fr.) Jülich</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
@@ -2790,13 +2786,13 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>491993.9996831641</v>
+        <v>491909.4940688942</v>
       </c>
       <c r="R19" t="n">
-        <v>6785505.377163783</v>
+        <v>6785494.484901348</v>
       </c>
       <c r="S19" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2836,11 +2832,6 @@
       <c r="AB19" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Minst 4 platser i området</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2868,10 +2859,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111491639</v>
+        <v>111491649</v>
       </c>
       <c r="B20" t="n">
-        <v>8377</v>
+        <v>90666</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2884,32 +2875,26 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>106545</v>
+        <v>4364</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2917,13 +2902,13 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>491993.9996831641</v>
+        <v>491979.6153062462</v>
       </c>
       <c r="R20" t="n">
-        <v>6785505.377163783</v>
+        <v>6785548.307010972</v>
       </c>
       <c r="S20" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2967,7 +2952,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>Spridd och riklig i området</t>
+          <t>mycel</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2995,10 +2980,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111491657</v>
+        <v>111491680</v>
       </c>
       <c r="B21" t="n">
-        <v>89425</v>
+        <v>56414</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3011,26 +2996,31 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5442</v>
+        <v>100049</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -3038,10 +3028,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>491946.35724353</v>
+        <v>491929.8523854768</v>
       </c>
       <c r="R21" t="n">
-        <v>6785570.554389503</v>
+        <v>6785530.587422797</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -3086,18 +3076,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>vid bohål</t>
-        </is>
-      </c>
       <c r="AD21" t="b">
         <v>0</v>
       </c>
       <c r="AE21" t="b">
         <v>0</v>
       </c>
-      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
@@ -3116,10 +3100,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111491685</v>
+        <v>111491657</v>
       </c>
       <c r="B22" t="n">
-        <v>88819</v>
+        <v>89425</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3128,25 +3112,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5685</v>
+        <v>5442</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Gullgröppa</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Pseudomerulius aureus</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.) Jülich</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3159,10 +3143,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>491909.4940688942</v>
+        <v>491946.35724353</v>
       </c>
       <c r="R22" t="n">
-        <v>6785494.484901348</v>
+        <v>6785570.554389503</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -3205,6 +3189,11 @@
       <c r="AB22" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>vid bohål</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3232,10 +3221,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111491680</v>
+        <v>111491662</v>
       </c>
       <c r="B23" t="n">
-        <v>56414</v>
+        <v>77515</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3248,31 +3237,26 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
@@ -3280,10 +3264,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>491929.8523854768</v>
+        <v>491969.9043757546</v>
       </c>
       <c r="R23" t="n">
-        <v>6785530.587422797</v>
+        <v>6785523.747805699</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3334,6 +3318,7 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
@@ -3352,10 +3337,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111491681</v>
+        <v>111491639</v>
       </c>
       <c r="B24" t="n">
-        <v>90666</v>
+        <v>8377</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3368,26 +3353,32 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4364</v>
+        <v>106545</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3395,13 +3386,13 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>491929.8523854768</v>
+        <v>491993.9996831641</v>
       </c>
       <c r="R24" t="n">
-        <v>6785530.587422797</v>
+        <v>6785505.377163783</v>
       </c>
       <c r="S24" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3445,7 +3436,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>äldre fruktkreopp</t>
+          <t>Spridd och riklig i området</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3473,10 +3464,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111491662</v>
+        <v>111491681</v>
       </c>
       <c r="B25" t="n">
-        <v>77515</v>
+        <v>90666</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3485,25 +3476,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>4364</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3516,10 +3507,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>491969.9043757546</v>
+        <v>491929.8523854768</v>
       </c>
       <c r="R25" t="n">
-        <v>6785523.747805699</v>
+        <v>6785530.587422797</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3562,6 +3553,11 @@
       <c r="AB25" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>äldre fruktkreopp</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3589,7 +3585,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111491649</v>
+        <v>111491641</v>
       </c>
       <c r="B26" t="n">
         <v>90666</v>
@@ -3622,7 +3618,11 @@
           <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
@@ -3632,13 +3632,13 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>491979.6153062462</v>
+        <v>491993.9996831641</v>
       </c>
       <c r="R26" t="n">
-        <v>6785548.307010972</v>
+        <v>6785505.377163783</v>
       </c>
       <c r="S26" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>mycel</t>
+          <t>Minst 4 platser i området</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3710,10 +3710,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111612720</v>
+        <v>111612726</v>
       </c>
       <c r="B27" t="n">
-        <v>88924</v>
+        <v>90168</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3722,32 +3722,28 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>256703</v>
+        <v>717</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tallfingersvamp</t>
+          <t>Borsttagging</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Ramaria eosanguinea</t>
+          <t>Gloiodon strigosus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(Schwein. : Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
@@ -3757,13 +3753,13 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>491993.9996831641</v>
+        <v>491952.3910193561</v>
       </c>
       <c r="R27" t="n">
-        <v>6785505.377163783</v>
+        <v>6785464.984647369</v>
       </c>
       <c r="S27" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3830,10 +3826,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111612726</v>
+        <v>111612738</v>
       </c>
       <c r="B28" t="n">
-        <v>90168</v>
+        <v>56414</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3842,30 +3838,35 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>717</v>
+        <v>100049</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Borsttagging</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Gloiodon strigosus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Schwein. : Fr.) P. Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
@@ -3927,7 +3928,6 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
-      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
@@ -4066,10 +4066,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111612738</v>
+        <v>111612720</v>
       </c>
       <c r="B30" t="n">
-        <v>56414</v>
+        <v>88924</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4078,35 +4078,34 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100049</v>
+        <v>256703</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tallfingersvamp</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Ramaria eosanguinea</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr"/>
+          <t>R.H.Petersen</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
@@ -4114,13 +4113,13 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>491952.3910193561</v>
+        <v>491993.9996831641</v>
       </c>
       <c r="R30" t="n">
-        <v>6785464.984647369</v>
+        <v>6785505.377163783</v>
       </c>
       <c r="S30" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -4168,6 +4167,7 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
+      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
@@ -4186,10 +4186,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111682652</v>
+        <v>111682665</v>
       </c>
       <c r="B31" t="n">
-        <v>90709</v>
+        <v>90682</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4202,21 +4202,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5448</v>
+        <v>2059</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4307,10 +4307,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111682769</v>
+        <v>111682658</v>
       </c>
       <c r="B32" t="n">
-        <v>89980</v>
+        <v>90689</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4319,25 +4319,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1179</v>
+        <v>5966</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Gräddticka</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Perenniporia subacida</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Peck) Donk</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4350,10 +4350,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>491952.3910193561</v>
+        <v>492024.0709204427</v>
       </c>
       <c r="R32" t="n">
-        <v>6785464.984647369</v>
+        <v>6785567.485207787</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4398,6 +4398,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>Längs stigen/traktorspåret strax utanför gränsmarkeringen som syns på träden</t>
+        </is>
+      </c>
       <c r="AD32" t="b">
         <v>0</v>
       </c>
@@ -4407,21 +4412,6 @@
       <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ32" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK32" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO32" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
@@ -4438,10 +4428,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111682665</v>
+        <v>111682652</v>
       </c>
       <c r="B33" t="n">
-        <v>90682</v>
+        <v>90709</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4454,21 +4444,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2059</v>
+        <v>5448</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4559,10 +4549,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111682658</v>
+        <v>111682769</v>
       </c>
       <c r="B34" t="n">
-        <v>90689</v>
+        <v>89980</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4571,25 +4561,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>5966</v>
+        <v>1179</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Gräddticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Perenniporia subacida</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Peck) Donk</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4602,10 +4592,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>492024.0709204427</v>
+        <v>491952.3910193561</v>
       </c>
       <c r="R34" t="n">
-        <v>6785567.485207787</v>
+        <v>6785464.984647369</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4650,11 +4640,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>Längs stigen/traktorspåret strax utanför gränsmarkeringen som syns på träden</t>
-        </is>
-      </c>
       <c r="AD34" t="b">
         <v>0</v>
       </c>
@@ -4664,6 +4649,21 @@
       <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ34" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK34" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO34" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">

--- a/artfynd/A 1135-2023.xlsx
+++ b/artfynd/A 1135-2023.xlsx
@@ -2743,10 +2743,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111491685</v>
+        <v>111491639</v>
       </c>
       <c r="B19" t="n">
-        <v>88819</v>
+        <v>8377</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2759,26 +2759,32 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5685</v>
+        <v>106545</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Gullgröppa</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Pseudomerulius aureus</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Jülich</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2786,13 +2792,13 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>491909.4940688942</v>
+        <v>491993.9996831641</v>
       </c>
       <c r="R19" t="n">
-        <v>6785494.484901348</v>
+        <v>6785505.377163783</v>
       </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2832,6 +2838,11 @@
       <c r="AB19" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Spridd och riklig i området</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2859,10 +2870,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111491649</v>
+        <v>111491685</v>
       </c>
       <c r="B20" t="n">
-        <v>90666</v>
+        <v>88819</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2875,21 +2886,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4364</v>
+        <v>5685</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Gullgröppa</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Pseudomerulius aureus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) Jülich</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2902,10 +2913,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>491979.6153062462</v>
+        <v>491909.4940688942</v>
       </c>
       <c r="R20" t="n">
-        <v>6785548.307010972</v>
+        <v>6785494.484901348</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -2948,11 +2959,6 @@
       <c r="AB20" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>mycel</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2980,10 +2986,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111491680</v>
+        <v>111491641</v>
       </c>
       <c r="B21" t="n">
-        <v>56414</v>
+        <v>90666</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2992,35 +2998,34 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100049</v>
+        <v>4364</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -3028,13 +3033,13 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>491929.8523854768</v>
+        <v>491993.9996831641</v>
       </c>
       <c r="R21" t="n">
-        <v>6785530.587422797</v>
+        <v>6785505.377163783</v>
       </c>
       <c r="S21" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3076,12 +3081,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Minst 4 platser i området</t>
+        </is>
+      </c>
       <c r="AD21" t="b">
         <v>0</v>
       </c>
       <c r="AE21" t="b">
         <v>0</v>
       </c>
+      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
@@ -3100,10 +3111,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111491657</v>
+        <v>111491681</v>
       </c>
       <c r="B22" t="n">
-        <v>89425</v>
+        <v>90666</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3112,25 +3123,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5442</v>
+        <v>4364</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3143,10 +3154,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>491946.35724353</v>
+        <v>491929.8523854768</v>
       </c>
       <c r="R22" t="n">
-        <v>6785570.554389503</v>
+        <v>6785530.587422797</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -3193,7 +3204,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>vid bohål</t>
+          <t>äldre fruktkreopp</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3337,10 +3348,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111491639</v>
+        <v>111491649</v>
       </c>
       <c r="B24" t="n">
-        <v>8377</v>
+        <v>90666</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3353,32 +3364,26 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>106545</v>
+        <v>4364</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3386,13 +3391,13 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>491993.9996831641</v>
+        <v>491979.6153062462</v>
       </c>
       <c r="R24" t="n">
-        <v>6785505.377163783</v>
+        <v>6785548.307010972</v>
       </c>
       <c r="S24" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3436,7 +3441,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>Spridd och riklig i området</t>
+          <t>mycel</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3464,10 +3469,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111491681</v>
+        <v>111491680</v>
       </c>
       <c r="B25" t="n">
-        <v>90666</v>
+        <v>56414</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3476,30 +3481,35 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4364</v>
+        <v>100049</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
@@ -3555,18 +3565,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>äldre fruktkreopp</t>
-        </is>
-      </c>
       <c r="AD25" t="b">
         <v>0</v>
       </c>
       <c r="AE25" t="b">
         <v>0</v>
       </c>
-      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
@@ -3585,10 +3589,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111491641</v>
+        <v>111491657</v>
       </c>
       <c r="B26" t="n">
-        <v>90666</v>
+        <v>89425</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3597,32 +3601,28 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>4364</v>
+        <v>5442</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>(Brot.) Murrill</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
@@ -3632,13 +3632,13 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>491993.9996831641</v>
+        <v>491946.35724353</v>
       </c>
       <c r="R26" t="n">
-        <v>6785505.377163783</v>
+        <v>6785570.554389503</v>
       </c>
       <c r="S26" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>Minst 4 platser i området</t>
+          <t>vid bohål</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3710,10 +3710,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111612726</v>
+        <v>111612720</v>
       </c>
       <c r="B27" t="n">
-        <v>90168</v>
+        <v>88924</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3722,28 +3722,32 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>717</v>
+        <v>256703</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Borsttagging</t>
+          <t>Tallfingersvamp</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Gloiodon strigosus</t>
+          <t>Ramaria eosanguinea</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Schwein. : Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
+          <t>R.H.Petersen</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
@@ -3753,13 +3757,13 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>491952.3910193561</v>
+        <v>491993.9996831641</v>
       </c>
       <c r="R27" t="n">
-        <v>6785464.984647369</v>
+        <v>6785505.377163783</v>
       </c>
       <c r="S27" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3946,10 +3950,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111612736</v>
+        <v>111612726</v>
       </c>
       <c r="B29" t="n">
-        <v>56398</v>
+        <v>90168</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3958,35 +3962,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100109</v>
+        <v>717</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Borsttagging</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Gloiodon strigosus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Schwein. : Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
@@ -4048,6 +4047,7 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
+      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
@@ -4066,10 +4066,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111612720</v>
+        <v>111612736</v>
       </c>
       <c r="B30" t="n">
-        <v>88924</v>
+        <v>56398</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4078,34 +4078,35 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>256703</v>
+        <v>100109</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tallfingersvamp</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Ramaria eosanguinea</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
@@ -4113,13 +4114,13 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>491993.9996831641</v>
+        <v>491952.3910193561</v>
       </c>
       <c r="R30" t="n">
-        <v>6785505.377163783</v>
+        <v>6785464.984647369</v>
       </c>
       <c r="S30" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -4167,7 +4168,6 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
-      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
@@ -4307,10 +4307,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111682658</v>
+        <v>111682655</v>
       </c>
       <c r="B32" t="n">
-        <v>90689</v>
+        <v>90658</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4323,24 +4323,28 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>5966</v>
+        <v>4361</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
@@ -4428,10 +4432,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111682652</v>
+        <v>111682769</v>
       </c>
       <c r="B33" t="n">
-        <v>90709</v>
+        <v>89980</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4440,25 +4444,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5448</v>
+        <v>1179</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Gräddticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Perenniporia subacida</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Peck) Donk</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4471,10 +4475,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>492024.0709204427</v>
+        <v>491952.3910193561</v>
       </c>
       <c r="R33" t="n">
-        <v>6785567.485207787</v>
+        <v>6785464.984647369</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4519,11 +4523,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>Längs stigen/traktorspåret strax utanför gränsmarkeringen som syns på träden</t>
-        </is>
-      </c>
       <c r="AD33" t="b">
         <v>0</v>
       </c>
@@ -4533,6 +4532,21 @@
       <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ33" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK33" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO33" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
@@ -4549,10 +4563,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111682769</v>
+        <v>111682658</v>
       </c>
       <c r="B34" t="n">
-        <v>89980</v>
+        <v>90689</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4561,25 +4575,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1179</v>
+        <v>5966</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Gräddticka</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Perenniporia subacida</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Peck) Donk</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4592,10 +4606,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>491952.3910193561</v>
+        <v>492024.0709204427</v>
       </c>
       <c r="R34" t="n">
-        <v>6785464.984647369</v>
+        <v>6785567.485207787</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4640,6 +4654,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>Längs stigen/traktorspåret strax utanför gränsmarkeringen som syns på träden</t>
+        </is>
+      </c>
       <c r="AD34" t="b">
         <v>0</v>
       </c>
@@ -4649,21 +4668,6 @@
       <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ34" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK34" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO34" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
@@ -4680,10 +4684,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111682655</v>
+        <v>111682652</v>
       </c>
       <c r="B35" t="n">
-        <v>90658</v>
+        <v>90709</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4696,28 +4700,24 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>4361</v>
+        <v>5448</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>

--- a/artfynd/A 1135-2023.xlsx
+++ b/artfynd/A 1135-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY35"/>
+  <dimension ref="A1:AY39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4803,6 +4803,467 @@
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>112045414</v>
+      </c>
+      <c r="B36" t="n">
+        <v>90689</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>5966</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Sarcodon squamosus</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Nedre Tetvasseltjärnen (Nedre Tetvasseltjärnen), Dlr</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>492044.3381435904</v>
+      </c>
+      <c r="R36" t="n">
+        <v>6785564.065369682</v>
+      </c>
+      <c r="S36" t="n">
+        <v>15</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>12:36</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>12:36</t>
+        </is>
+      </c>
+      <c r="AD36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT36" t="inlineStr"/>
+      <c r="AW36" t="inlineStr">
+        <is>
+          <t>Bo karlstens</t>
+        </is>
+      </c>
+      <c r="AX36" t="inlineStr">
+        <is>
+          <t>Bo karlstens, Bengt Oldhammer, Janolof Hermansson</t>
+        </is>
+      </c>
+      <c r="AY36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>112045085</v>
+      </c>
+      <c r="B37" t="n">
+        <v>88924</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>256703</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Tallfingersvamp</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Ramaria eosanguinea</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>R.H.Petersen</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Nedre Tetvasseltjärnen (Nedre Tetvasseltjärnen), Dlr</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>492013.8535130407</v>
+      </c>
+      <c r="R37" t="n">
+        <v>6785532.323436439</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>12:14</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>12:14</t>
+        </is>
+      </c>
+      <c r="AD37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT37" t="inlineStr"/>
+      <c r="AW37" t="inlineStr">
+        <is>
+          <t>Bo karlstens</t>
+        </is>
+      </c>
+      <c r="AX37" t="inlineStr">
+        <is>
+          <t>Bo karlstens, Bengt Oldhammer, Janolof Hermansson</t>
+        </is>
+      </c>
+      <c r="AY37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>112045302</v>
+      </c>
+      <c r="B38" t="n">
+        <v>90658</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>4361</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Hydnellum aurantiacum</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Nedre Tetvasseltjärnen (Nedre Tetvasseltjärnen), Dlr</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>492044.3381435904</v>
+      </c>
+      <c r="R38" t="n">
+        <v>6785564.065369682</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>12:27</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>12:27</t>
+        </is>
+      </c>
+      <c r="AD38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT38" t="inlineStr"/>
+      <c r="AW38" t="inlineStr">
+        <is>
+          <t>Bo karlstens</t>
+        </is>
+      </c>
+      <c r="AX38" t="inlineStr">
+        <is>
+          <t>Bo karlstens, Bengt Oldhammer, Janolof Hermansson</t>
+        </is>
+      </c>
+      <c r="AY38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>112045406</v>
+      </c>
+      <c r="B39" t="n">
+        <v>90682</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>2059</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Skrovlig taggsvamp</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Hydnellum scabrosum</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Nedre Tetvasseltjärnen (Nedre Tetvasseltjärnen), Dlr</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>492044.3381435904</v>
+      </c>
+      <c r="R39" t="n">
+        <v>6785564.065369682</v>
+      </c>
+      <c r="S39" t="n">
+        <v>15</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>12:36</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>12:36</t>
+        </is>
+      </c>
+      <c r="AD39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT39" t="inlineStr"/>
+      <c r="AW39" t="inlineStr">
+        <is>
+          <t>Bo karlstens</t>
+        </is>
+      </c>
+      <c r="AX39" t="inlineStr">
+        <is>
+          <t>Bo karlstens, Bengt Oldhammer, Janolof Hermansson</t>
+        </is>
+      </c>
+      <c r="AY39" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 1135-2023.xlsx
+++ b/artfynd/A 1135-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY39"/>
+  <dimension ref="A1:AY40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2743,10 +2743,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111491639</v>
+        <v>111491662</v>
       </c>
       <c r="B19" t="n">
-        <v>8377</v>
+        <v>77515</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2755,36 +2755,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2792,13 +2786,13 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>491993.9996831641</v>
+        <v>491969.9043757546</v>
       </c>
       <c r="R19" t="n">
-        <v>6785505.377163783</v>
+        <v>6785523.747805699</v>
       </c>
       <c r="S19" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2838,11 +2832,6 @@
       <c r="AB19" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Spridd och riklig i området</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2870,10 +2859,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111491685</v>
+        <v>111491680</v>
       </c>
       <c r="B20" t="n">
-        <v>88819</v>
+        <v>56414</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2882,30 +2871,35 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5685</v>
+        <v>100049</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Gullgröppa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Pseudomerulius aureus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Jülich</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2913,10 +2907,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>491909.4940688942</v>
+        <v>491929.8523854768</v>
       </c>
       <c r="R20" t="n">
-        <v>6785494.484901348</v>
+        <v>6785530.587422797</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -2967,7 +2961,6 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
-      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
@@ -2986,7 +2979,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111491641</v>
+        <v>111491681</v>
       </c>
       <c r="B21" t="n">
         <v>90666</v>
@@ -3019,11 +3012,7 @@
           <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
@@ -3033,13 +3022,13 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>491993.9996831641</v>
+        <v>491929.8523854768</v>
       </c>
       <c r="R21" t="n">
-        <v>6785505.377163783</v>
+        <v>6785530.587422797</v>
       </c>
       <c r="S21" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3083,7 +3072,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>Minst 4 platser i området</t>
+          <t>äldre fruktkreopp</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3111,7 +3100,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111491681</v>
+        <v>111491641</v>
       </c>
       <c r="B22" t="n">
         <v>90666</v>
@@ -3144,7 +3133,11 @@
           <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
@@ -3154,13 +3147,13 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>491929.8523854768</v>
+        <v>491993.9996831641</v>
       </c>
       <c r="R22" t="n">
-        <v>6785530.587422797</v>
+        <v>6785505.377163783</v>
       </c>
       <c r="S22" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3204,7 +3197,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>äldre fruktkreopp</t>
+          <t>Minst 4 platser i området</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3232,10 +3225,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111491662</v>
+        <v>111491657</v>
       </c>
       <c r="B23" t="n">
-        <v>77515</v>
+        <v>89425</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3248,21 +3241,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>5442</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3275,10 +3268,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>491969.9043757546</v>
+        <v>491946.35724353</v>
       </c>
       <c r="R23" t="n">
-        <v>6785523.747805699</v>
+        <v>6785570.554389503</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3321,6 +3314,11 @@
       <c r="AB23" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>vid bohål</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3348,10 +3346,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111491649</v>
+        <v>111491639</v>
       </c>
       <c r="B24" t="n">
-        <v>90666</v>
+        <v>8377</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3364,26 +3362,32 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4364</v>
+        <v>106545</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3391,13 +3395,13 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>491979.6153062462</v>
+        <v>491993.9996831641</v>
       </c>
       <c r="R24" t="n">
-        <v>6785548.307010972</v>
+        <v>6785505.377163783</v>
       </c>
       <c r="S24" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3441,7 +3445,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>mycel</t>
+          <t>Spridd och riklig i området</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3469,10 +3473,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111491680</v>
+        <v>111491685</v>
       </c>
       <c r="B25" t="n">
-        <v>56414</v>
+        <v>88819</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3481,35 +3485,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100049</v>
+        <v>5685</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Gullgröppa</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Pseudomerulius aureus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Jülich</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
@@ -3517,10 +3516,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>491929.8523854768</v>
+        <v>491909.4940688942</v>
       </c>
       <c r="R25" t="n">
-        <v>6785530.587422797</v>
+        <v>6785494.484901348</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3571,6 +3570,7 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
+      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
@@ -3589,10 +3589,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111491657</v>
+        <v>111491649</v>
       </c>
       <c r="B26" t="n">
-        <v>89425</v>
+        <v>90666</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3601,25 +3601,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5442</v>
+        <v>4364</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3632,10 +3632,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>491946.35724353</v>
+        <v>491979.6153062462</v>
       </c>
       <c r="R26" t="n">
-        <v>6785570.554389503</v>
+        <v>6785548.307010972</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3682,7 +3682,7 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>vid bohål</t>
+          <t>mycel</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3710,10 +3710,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111612720</v>
+        <v>111612738</v>
       </c>
       <c r="B27" t="n">
-        <v>88924</v>
+        <v>56414</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3722,34 +3722,35 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>256703</v>
+        <v>100049</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tallfingersvamp</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Ramaria eosanguinea</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
@@ -3757,13 +3758,13 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>491993.9996831641</v>
+        <v>491952.3910193561</v>
       </c>
       <c r="R27" t="n">
-        <v>6785505.377163783</v>
+        <v>6785464.984647369</v>
       </c>
       <c r="S27" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3811,7 +3812,6 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
-      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
@@ -3830,10 +3830,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111612738</v>
+        <v>111612736</v>
       </c>
       <c r="B28" t="n">
-        <v>56414</v>
+        <v>56398</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3846,16 +3846,16 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -4066,10 +4066,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111612736</v>
+        <v>111612720</v>
       </c>
       <c r="B30" t="n">
-        <v>56398</v>
+        <v>88924</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4078,35 +4078,34 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100109</v>
+        <v>256703</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Tallfingersvamp</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Ramaria eosanguinea</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr"/>
+          <t>R.H.Petersen</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
@@ -4114,13 +4113,13 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>491952.3910193561</v>
+        <v>491993.9996831641</v>
       </c>
       <c r="R30" t="n">
-        <v>6785464.984647369</v>
+        <v>6785505.377163783</v>
       </c>
       <c r="S30" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -4168,6 +4167,7 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
+      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
@@ -4307,10 +4307,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111682655</v>
+        <v>111682658</v>
       </c>
       <c r="B32" t="n">
-        <v>90658</v>
+        <v>90689</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4323,28 +4323,24 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4361</v>
+        <v>5966</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
@@ -4432,10 +4428,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111682769</v>
+        <v>111682652</v>
       </c>
       <c r="B33" t="n">
-        <v>89980</v>
+        <v>90709</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4444,25 +4440,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1179</v>
+        <v>5448</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Gräddticka</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Perenniporia subacida</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Peck) Donk</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4475,10 +4471,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>491952.3910193561</v>
+        <v>492024.0709204427</v>
       </c>
       <c r="R33" t="n">
-        <v>6785464.984647369</v>
+        <v>6785567.485207787</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4523,6 +4519,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>Längs stigen/traktorspåret strax utanför gränsmarkeringen som syns på träden</t>
+        </is>
+      </c>
       <c r="AD33" t="b">
         <v>0</v>
       </c>
@@ -4532,21 +4533,6 @@
       <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ33" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK33" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO33" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
@@ -4563,10 +4549,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111682658</v>
+        <v>111682655</v>
       </c>
       <c r="B34" t="n">
-        <v>90689</v>
+        <v>90658</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4579,24 +4565,28 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>5966</v>
+        <v>4361</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
@@ -4684,10 +4674,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111682652</v>
+        <v>111682769</v>
       </c>
       <c r="B35" t="n">
-        <v>90709</v>
+        <v>89980</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4696,25 +4686,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5448</v>
+        <v>1179</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Gräddticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Perenniporia subacida</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Peck) Donk</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4727,10 +4717,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>492024.0709204427</v>
+        <v>491952.3910193561</v>
       </c>
       <c r="R35" t="n">
-        <v>6785567.485207787</v>
+        <v>6785464.984647369</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4775,11 +4765,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>Längs stigen/traktorspåret strax utanför gränsmarkeringen som syns på träden</t>
-        </is>
-      </c>
       <c r="AD35" t="b">
         <v>0</v>
       </c>
@@ -4789,6 +4774,21 @@
       <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ35" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK35" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO35" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
@@ -4916,17 +4916,17 @@
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Bo karlstens, Bengt Oldhammer, Janolof Hermansson</t>
+          <t>Bo karlstens, Bengt Oldhammer, Janolof Hermansson, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112045085</v>
+        <v>112073422</v>
       </c>
       <c r="B37" t="n">
-        <v>88924</v>
+        <v>88949</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4939,21 +4939,16 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>256703</v>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Tallfingersvamp</t>
-        </is>
+        <v>233195</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Ramaria eosanguinea</t>
+          <t>Ramaria neoformosa</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
+          <t>sensu Schild</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -4961,17 +4956,23 @@
           <t>3</t>
         </is>
       </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Nedre Tetvasseltjärnen (Nedre Tetvasseltjärnen), Dlr</t>
+          <t>N om Nedre Tetvasseltjärnen, Dlr</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>492013.8535130407</v>
+        <v>491995.9899496675</v>
       </c>
       <c r="R37" t="n">
-        <v>6785532.323436439</v>
+        <v>6785531.400109125</v>
       </c>
       <c r="S37" t="n">
         <v>5</v>
@@ -5003,7 +5004,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>12:14</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -5013,7 +5014,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>12:14</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5022,28 +5023,49 @@
       <c r="AE37" t="b">
         <v>0</v>
       </c>
+      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
+      </c>
+      <c r="AH37" t="inlineStr">
+        <is>
+          <t>Sandtallskog</t>
+        </is>
+      </c>
+      <c r="AJ37" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK37" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO37" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Janolof Hermansson</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Bo karlstens, Bengt Oldhammer, Janolof Hermansson</t>
+          <t>Janolof Hermansson, Bengt Oldhammer, Bo karlstens, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112045302</v>
+        <v>112073630</v>
       </c>
       <c r="B38" t="n">
-        <v>90658</v>
+        <v>88924</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5052,39 +5074,49 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4361</v>
+        <v>256703</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Tallfingersvamp</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Ramaria eosanguinea</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr"/>
+          <t>R.H.Petersen</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Nedre Tetvasseltjärnen (Nedre Tetvasseltjärnen), Dlr</t>
+          <t>N om Nedre Tetvasseltjärnen, Dlr</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>492044.3381435904</v>
+        <v>491917.2246397196</v>
       </c>
       <c r="R38" t="n">
-        <v>6785564.065369682</v>
+        <v>6785497.359069696</v>
       </c>
       <c r="S38" t="n">
         <v>5</v>
@@ -5116,7 +5148,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -5126,7 +5158,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5135,28 +5167,49 @@
       <c r="AE38" t="b">
         <v>0</v>
       </c>
+      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
+      </c>
+      <c r="AH38" t="inlineStr">
+        <is>
+          <t>Sandtallskog</t>
+        </is>
+      </c>
+      <c r="AJ38" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK38" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO38" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Janolof Hermansson</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Bo karlstens, Bengt Oldhammer, Janolof Hermansson</t>
+          <t>Janolof Hermansson, Bengt Oldhammer, Bo karlstens, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112045406</v>
+        <v>112045343</v>
       </c>
       <c r="B39" t="n">
-        <v>90682</v>
+        <v>90658</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5169,24 +5222,33 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2059</v>
+        <v>4361</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr"/>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
@@ -5200,7 +5262,7 @@
         <v>6785564.065369682</v>
       </c>
       <c r="S39" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -5229,7 +5291,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -5239,7 +5301,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5259,10 +5321,123 @@
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Bo karlstens, Bengt Oldhammer, Janolof Hermansson</t>
+          <t>Bo karlstens, Bengt Oldhammer, Janolof Hermansson, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>112045406</v>
+      </c>
+      <c r="B40" t="n">
+        <v>90682</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>2059</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Skrovlig taggsvamp</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Hydnellum scabrosum</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Nedre Tetvasseltjärnen (Nedre Tetvasseltjärnen), Dlr</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>492044.3381435904</v>
+      </c>
+      <c r="R40" t="n">
+        <v>6785564.065369682</v>
+      </c>
+      <c r="S40" t="n">
+        <v>15</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>12:36</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>12:36</t>
+        </is>
+      </c>
+      <c r="AD40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT40" t="inlineStr"/>
+      <c r="AW40" t="inlineStr">
+        <is>
+          <t>Bo karlstens</t>
+        </is>
+      </c>
+      <c r="AX40" t="inlineStr">
+        <is>
+          <t>Bo karlstens, Bengt Oldhammer, Janolof Hermansson, Birgitta Kvist</t>
+        </is>
+      </c>
+      <c r="AY40" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 1135-2023.xlsx
+++ b/artfynd/A 1135-2023.xlsx
@@ -3950,10 +3950,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111612726</v>
+        <v>111612720</v>
       </c>
       <c r="B29" t="n">
-        <v>90168</v>
+        <v>88924</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3962,28 +3962,32 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>717</v>
+        <v>256703</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Borsttagging</t>
+          <t>Tallfingersvamp</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Gloiodon strigosus</t>
+          <t>Ramaria eosanguinea</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Schwein. : Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr"/>
+          <t>R.H.Petersen</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
@@ -3993,13 +3997,13 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>491952.3910193561</v>
+        <v>491993.9996831641</v>
       </c>
       <c r="R29" t="n">
-        <v>6785464.984647369</v>
+        <v>6785505.377163783</v>
       </c>
       <c r="S29" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -4066,10 +4070,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111612720</v>
+        <v>111612726</v>
       </c>
       <c r="B30" t="n">
-        <v>88924</v>
+        <v>90168</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4078,32 +4082,28 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>256703</v>
+        <v>717</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tallfingersvamp</t>
+          <t>Borsttagging</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Ramaria eosanguinea</t>
+          <t>Gloiodon strigosus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(Schwein. : Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
@@ -4113,13 +4113,13 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>491993.9996831641</v>
+        <v>491952.3910193561</v>
       </c>
       <c r="R30" t="n">
-        <v>6785505.377163783</v>
+        <v>6785464.984647369</v>
       </c>
       <c r="S30" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -4186,10 +4186,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111682665</v>
+        <v>111682658</v>
       </c>
       <c r="B31" t="n">
-        <v>90682</v>
+        <v>90689</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4202,21 +4202,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2059</v>
+        <v>5966</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4307,10 +4307,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111682658</v>
+        <v>111682655</v>
       </c>
       <c r="B32" t="n">
-        <v>90689</v>
+        <v>90658</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4323,24 +4323,28 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>5966</v>
+        <v>4361</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
@@ -4428,10 +4432,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111682652</v>
+        <v>111682665</v>
       </c>
       <c r="B33" t="n">
-        <v>90709</v>
+        <v>90682</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4444,21 +4448,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5448</v>
+        <v>2059</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4549,10 +4553,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111682655</v>
+        <v>111682652</v>
       </c>
       <c r="B34" t="n">
-        <v>90658</v>
+        <v>90709</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4565,28 +4569,24 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4361</v>
+        <v>5448</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
@@ -4805,10 +4805,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112045414</v>
+        <v>112073422</v>
       </c>
       <c r="B36" t="n">
-        <v>90689</v>
+        <v>88949</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4817,47 +4817,47 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>5966</v>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Motaggsvamp</t>
-        </is>
+        <v>233195</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Ramaria neoformosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
+          <t>sensu Schild</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="J36" t="inlineStr">
         <is>
           <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Nedre Tetvasseltjärnen (Nedre Tetvasseltjärnen), Dlr</t>
+          <t>N om Nedre Tetvasseltjärnen, Dlr</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>492044.3381435904</v>
+        <v>491995.9899496675</v>
       </c>
       <c r="R36" t="n">
-        <v>6785564.065369682</v>
+        <v>6785531.400109125</v>
       </c>
       <c r="S36" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4896,7 +4896,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4905,28 +4905,49 @@
       <c r="AE36" t="b">
         <v>0</v>
       </c>
+      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
+      </c>
+      <c r="AH36" t="inlineStr">
+        <is>
+          <t>Sandtallskog</t>
+        </is>
+      </c>
+      <c r="AJ36" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK36" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO36" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Janolof Hermansson</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Bo karlstens, Bengt Oldhammer, Janolof Hermansson, Birgitta Kvist</t>
+          <t>Janolof Hermansson, Bengt Oldhammer, Bo karlstens, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112073422</v>
+        <v>112045406</v>
       </c>
       <c r="B37" t="n">
-        <v>88949</v>
+        <v>90682</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4935,47 +4956,42 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>233195</v>
+        <v>2059</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Skrovlig taggsvamp</t>
+        </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Ramaria neoformosa</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>sensu Schild</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>N om Nedre Tetvasseltjärnen, Dlr</t>
+          <t>Nedre Tetvasseltjärnen (Nedre Tetvasseltjärnen), Dlr</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>491995.9899496675</v>
+        <v>492044.3381435904</v>
       </c>
       <c r="R37" t="n">
-        <v>6785531.400109125</v>
+        <v>6785564.065369682</v>
       </c>
       <c r="S37" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -5004,7 +5020,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -5014,7 +5030,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5023,39 +5039,18 @@
       <c r="AE37" t="b">
         <v>0</v>
       </c>
-      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
-      </c>
-      <c r="AH37" t="inlineStr">
-        <is>
-          <t>Sandtallskog</t>
-        </is>
-      </c>
-      <c r="AJ37" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK37" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO37" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Janolof Hermansson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Janolof Hermansson, Bengt Oldhammer, Bo karlstens, Birgitta Kvist</t>
+          <t>Bo karlstens, Bengt Oldhammer, Janolof Hermansson, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
@@ -5206,7 +5201,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112045343</v>
+        <v>112045302</v>
       </c>
       <c r="B39" t="n">
         <v>90658</v>
@@ -5239,16 +5234,7 @@
           <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
@@ -5291,7 +5277,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -5301,7 +5287,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5328,10 +5314,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112045406</v>
+        <v>112045414</v>
       </c>
       <c r="B40" t="n">
-        <v>90682</v>
+        <v>90689</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5344,24 +5330,29 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2059</v>
+        <v>5966</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>

--- a/artfynd/A 1135-2023.xlsx
+++ b/artfynd/A 1135-2023.xlsx
@@ -3710,10 +3710,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111612738</v>
+        <v>111612720</v>
       </c>
       <c r="B27" t="n">
-        <v>56414</v>
+        <v>88924</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3722,35 +3722,34 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100049</v>
+        <v>256703</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tallfingersvamp</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Ramaria eosanguinea</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
+          <t>R.H.Petersen</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
@@ -3758,13 +3757,13 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>491952.3910193561</v>
+        <v>491993.9996831641</v>
       </c>
       <c r="R27" t="n">
-        <v>6785464.984647369</v>
+        <v>6785505.377163783</v>
       </c>
       <c r="S27" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3812,6 +3811,7 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
+      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
@@ -3830,10 +3830,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111612736</v>
+        <v>111612738</v>
       </c>
       <c r="B28" t="n">
-        <v>56398</v>
+        <v>56414</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3846,16 +3846,16 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -3950,10 +3950,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111612720</v>
+        <v>111612726</v>
       </c>
       <c r="B29" t="n">
-        <v>88924</v>
+        <v>90168</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3962,32 +3962,28 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>256703</v>
+        <v>717</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tallfingersvamp</t>
+          <t>Borsttagging</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Ramaria eosanguinea</t>
+          <t>Gloiodon strigosus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(Schwein. : Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
@@ -3997,13 +3993,13 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>491993.9996831641</v>
+        <v>491952.3910193561</v>
       </c>
       <c r="R29" t="n">
-        <v>6785505.377163783</v>
+        <v>6785464.984647369</v>
       </c>
       <c r="S29" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -4070,10 +4066,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111612726</v>
+        <v>111612736</v>
       </c>
       <c r="B30" t="n">
-        <v>90168</v>
+        <v>56398</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4082,30 +4078,35 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>717</v>
+        <v>100109</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Borsttagging</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Gloiodon strigosus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Schwein. : Fr.) P. Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
@@ -4167,7 +4168,6 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
-      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
@@ -4186,10 +4186,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111682658</v>
+        <v>111682655</v>
       </c>
       <c r="B31" t="n">
-        <v>90689</v>
+        <v>90658</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4202,24 +4202,28 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5966</v>
+        <v>4361</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr"/>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
@@ -4307,10 +4311,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111682655</v>
+        <v>111682652</v>
       </c>
       <c r="B32" t="n">
-        <v>90658</v>
+        <v>90709</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4323,28 +4327,24 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4361</v>
+        <v>5448</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
@@ -4432,10 +4432,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111682665</v>
+        <v>111682658</v>
       </c>
       <c r="B33" t="n">
-        <v>90682</v>
+        <v>90689</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4448,21 +4448,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2059</v>
+        <v>5966</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4553,10 +4553,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111682652</v>
+        <v>111682665</v>
       </c>
       <c r="B34" t="n">
-        <v>90709</v>
+        <v>90682</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4569,21 +4569,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>5448</v>
+        <v>2059</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4805,10 +4805,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112073422</v>
+        <v>112045343</v>
       </c>
       <c r="B36" t="n">
-        <v>88949</v>
+        <v>90658</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4817,25 +4817,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>233195</v>
+        <v>4361</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp</t>
+        </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Ramaria neoformosa</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>sensu Schild</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -4844,17 +4849,16 @@
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>N om Nedre Tetvasseltjärnen, Dlr</t>
+          <t>Nedre Tetvasseltjärnen (Nedre Tetvasseltjärnen), Dlr</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>491995.9899496675</v>
+        <v>492044.3381435904</v>
       </c>
       <c r="R36" t="n">
-        <v>6785531.400109125</v>
+        <v>6785564.065369682</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
@@ -4886,7 +4890,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4896,7 +4900,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4905,49 +4909,28 @@
       <c r="AE36" t="b">
         <v>0</v>
       </c>
-      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
-      </c>
-      <c r="AH36" t="inlineStr">
-        <is>
-          <t>Sandtallskog</t>
-        </is>
-      </c>
-      <c r="AJ36" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK36" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO36" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Janolof Hermansson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Janolof Hermansson, Bengt Oldhammer, Bo karlstens, Birgitta Kvist</t>
+          <t>Bo karlstens, Bengt Oldhammer, Janolof Hermansson, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112045406</v>
+        <v>112073422</v>
       </c>
       <c r="B37" t="n">
-        <v>90682</v>
+        <v>88949</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4956,42 +4939,47 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2059</v>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Skrovlig taggsvamp</t>
-        </is>
+        <v>233195</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Ramaria neoformosa</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr"/>
+          <t>sensu Schild</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Nedre Tetvasseltjärnen (Nedre Tetvasseltjärnen), Dlr</t>
+          <t>N om Nedre Tetvasseltjärnen, Dlr</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>492044.3381435904</v>
+        <v>491995.9899496675</v>
       </c>
       <c r="R37" t="n">
-        <v>6785564.065369682</v>
+        <v>6785531.400109125</v>
       </c>
       <c r="S37" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -5020,7 +5008,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -5030,7 +5018,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5039,28 +5027,49 @@
       <c r="AE37" t="b">
         <v>0</v>
       </c>
+      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
+      </c>
+      <c r="AH37" t="inlineStr">
+        <is>
+          <t>Sandtallskog</t>
+        </is>
+      </c>
+      <c r="AJ37" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK37" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO37" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Janolof Hermansson</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Bo karlstens, Bengt Oldhammer, Janolof Hermansson, Birgitta Kvist</t>
+          <t>Janolof Hermansson, Bengt Oldhammer, Bo karlstens, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112073630</v>
+        <v>112045406</v>
       </c>
       <c r="B38" t="n">
-        <v>88924</v>
+        <v>90682</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5069,52 +5078,42 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>256703</v>
+        <v>2059</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Tallfingersvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Ramaria eosanguinea</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>N om Nedre Tetvasseltjärnen, Dlr</t>
+          <t>Nedre Tetvasseltjärnen (Nedre Tetvasseltjärnen), Dlr</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>491917.2246397196</v>
+        <v>492044.3381435904</v>
       </c>
       <c r="R38" t="n">
-        <v>6785497.359069696</v>
+        <v>6785564.065369682</v>
       </c>
       <c r="S38" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -5143,7 +5142,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -5153,7 +5152,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5162,49 +5161,28 @@
       <c r="AE38" t="b">
         <v>0</v>
       </c>
-      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
-      </c>
-      <c r="AH38" t="inlineStr">
-        <is>
-          <t>Sandtallskog</t>
-        </is>
-      </c>
-      <c r="AJ38" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK38" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO38" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Janolof Hermansson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Janolof Hermansson, Bengt Oldhammer, Bo karlstens, Birgitta Kvist</t>
+          <t>Bo karlstens, Bengt Oldhammer, Janolof Hermansson, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112045302</v>
+        <v>112073630</v>
       </c>
       <c r="B39" t="n">
-        <v>90658</v>
+        <v>88924</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5213,39 +5191,49 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>4361</v>
+        <v>256703</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Tallfingersvamp</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Ramaria eosanguinea</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr"/>
+          <t>R.H.Petersen</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Nedre Tetvasseltjärnen (Nedre Tetvasseltjärnen), Dlr</t>
+          <t>N om Nedre Tetvasseltjärnen, Dlr</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>492044.3381435904</v>
+        <v>491917.2246397196</v>
       </c>
       <c r="R39" t="n">
-        <v>6785564.065369682</v>
+        <v>6785497.359069696</v>
       </c>
       <c r="S39" t="n">
         <v>5</v>
@@ -5277,7 +5265,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -5287,7 +5275,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5296,18 +5284,39 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
+      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
+      </c>
+      <c r="AH39" t="inlineStr">
+        <is>
+          <t>Sandtallskog</t>
+        </is>
+      </c>
+      <c r="AJ39" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK39" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO39" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Janolof Hermansson</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Bo karlstens, Bengt Oldhammer, Janolof Hermansson, Birgitta Kvist</t>
+          <t>Janolof Hermansson, Bengt Oldhammer, Bo karlstens, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>

--- a/artfynd/A 1135-2023.xlsx
+++ b/artfynd/A 1135-2023.xlsx
@@ -4186,10 +4186,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111682655</v>
+        <v>111682769</v>
       </c>
       <c r="B31" t="n">
-        <v>90658</v>
+        <v>89980</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4198,32 +4198,28 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>4361</v>
+        <v>1179</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Gräddticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Perenniporia subacida</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>(Peck) Donk</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
@@ -4233,10 +4229,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>492024.0709204427</v>
+        <v>491952</v>
       </c>
       <c r="R31" t="n">
-        <v>6785567.485207787</v>
+        <v>6785465</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4266,24 +4262,9 @@
           <t>2023-08-25</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA31" t="inlineStr">
         <is>
           <t>2023-08-25</t>
-        </is>
-      </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>Längs stigen/traktorspåret strax utanför gränsmarkeringen som syns på träden</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4295,6 +4276,21 @@
       <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ31" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK31" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO31" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
@@ -4311,10 +4307,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111682652</v>
+        <v>111682658</v>
       </c>
       <c r="B32" t="n">
-        <v>90709</v>
+        <v>90689</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4327,21 +4323,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>5448</v>
+        <v>5966</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4354,10 +4350,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>492024.0709204427</v>
+        <v>492024</v>
       </c>
       <c r="R32" t="n">
-        <v>6785567.485207787</v>
+        <v>6785567</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4387,19 +4383,9 @@
           <t>2023-08-25</t>
         </is>
       </c>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA32" t="inlineStr">
         <is>
           <t>2023-08-25</t>
-        </is>
-      </c>
-      <c r="AB32" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
@@ -4432,10 +4418,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111682658</v>
+        <v>111682652</v>
       </c>
       <c r="B33" t="n">
-        <v>90689</v>
+        <v>90709</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4448,21 +4434,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5966</v>
+        <v>5448</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4475,10 +4461,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>492024.0709204427</v>
+        <v>492024</v>
       </c>
       <c r="R33" t="n">
-        <v>6785567.485207787</v>
+        <v>6785567</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4508,19 +4494,9 @@
           <t>2023-08-25</t>
         </is>
       </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA33" t="inlineStr">
         <is>
           <t>2023-08-25</t>
-        </is>
-      </c>
-      <c r="AB33" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr">
@@ -4553,10 +4529,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111682665</v>
+        <v>111682655</v>
       </c>
       <c r="B34" t="n">
-        <v>90682</v>
+        <v>90658</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4569,24 +4545,28 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2059</v>
+        <v>4361</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
@@ -4596,10 +4576,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>492024.0709204427</v>
+        <v>492024</v>
       </c>
       <c r="R34" t="n">
-        <v>6785567.485207787</v>
+        <v>6785567</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4629,19 +4609,9 @@
           <t>2023-08-25</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA34" t="inlineStr">
         <is>
           <t>2023-08-25</t>
-        </is>
-      </c>
-      <c r="AB34" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
@@ -4674,10 +4644,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111682769</v>
+        <v>111682665</v>
       </c>
       <c r="B35" t="n">
-        <v>89980</v>
+        <v>90682</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4686,25 +4656,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1179</v>
+        <v>2059</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Gräddticka</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Perenniporia subacida</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Peck) Donk</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4717,10 +4687,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>491952.3910193561</v>
+        <v>492024</v>
       </c>
       <c r="R35" t="n">
-        <v>6785464.984647369</v>
+        <v>6785567</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4750,19 +4720,14 @@
           <t>2023-08-25</t>
         </is>
       </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA35" t="inlineStr">
         <is>
           <t>2023-08-25</t>
         </is>
       </c>
-      <c r="AB35" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>Längs stigen/traktorspåret strax utanför gränsmarkeringen som syns på träden</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4774,21 +4739,6 @@
       <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ35" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK35" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO35" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
@@ -4805,7 +4755,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112045343</v>
+        <v>112045302</v>
       </c>
       <c r="B36" t="n">
         <v>90658</v>
@@ -4838,16 +4788,7 @@
           <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
@@ -4855,10 +4796,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>492044.3381435904</v>
+        <v>492044</v>
       </c>
       <c r="R36" t="n">
-        <v>6785564.065369682</v>
+        <v>6785564</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
@@ -4890,7 +4831,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4900,7 +4841,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4927,10 +4868,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112073422</v>
+        <v>112045414</v>
       </c>
       <c r="B37" t="n">
-        <v>88949</v>
+        <v>90689</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4939,47 +4880,47 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>233195</v>
+        <v>5966</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Ramaria neoformosa</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>sensu Schild</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
           <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>N om Nedre Tetvasseltjärnen, Dlr</t>
+          <t>Nedre Tetvasseltjärnen (Nedre Tetvasseltjärnen), Dlr</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>491995.9899496675</v>
+        <v>492044</v>
       </c>
       <c r="R37" t="n">
-        <v>6785531.400109125</v>
+        <v>6785564</v>
       </c>
       <c r="S37" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -5008,7 +4949,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -5018,7 +4959,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5027,49 +4968,28 @@
       <c r="AE37" t="b">
         <v>0</v>
       </c>
-      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
-      </c>
-      <c r="AH37" t="inlineStr">
-        <is>
-          <t>Sandtallskog</t>
-        </is>
-      </c>
-      <c r="AJ37" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK37" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO37" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Janolof Hermansson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Janolof Hermansson, Bengt Oldhammer, Bo karlstens, Birgitta Kvist</t>
+          <t>Bo karlstens, Bengt Oldhammer, Janolof Hermansson, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112045406</v>
+        <v>112073630</v>
       </c>
       <c r="B38" t="n">
-        <v>90682</v>
+        <v>88924</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5078,42 +4998,52 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>2059</v>
+        <v>256703</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Tallfingersvamp</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Ramaria eosanguinea</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr"/>
+          <t>R.H.Petersen</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Nedre Tetvasseltjärnen (Nedre Tetvasseltjärnen), Dlr</t>
+          <t>N om Nedre Tetvasseltjärnen, Dlr</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>492044.3381435904</v>
+        <v>491917</v>
       </c>
       <c r="R38" t="n">
-        <v>6785564.065369682</v>
+        <v>6785497</v>
       </c>
       <c r="S38" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -5140,49 +5070,60 @@
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>12:36</t>
-        </is>
-      </c>
       <c r="AA38" t="inlineStr">
         <is>
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="AB38" t="inlineStr">
-        <is>
-          <t>12:36</t>
-        </is>
-      </c>
       <c r="AD38" t="b">
         <v>0</v>
       </c>
       <c r="AE38" t="b">
         <v>0</v>
       </c>
+      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
+      </c>
+      <c r="AH38" t="inlineStr">
+        <is>
+          <t>Sandtallskog</t>
+        </is>
+      </c>
+      <c r="AJ38" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK38" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO38" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Janolof Hermansson</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Bo karlstens, Bengt Oldhammer, Janolof Hermansson, Birgitta Kvist</t>
+          <t>Janolof Hermansson, Bengt Oldhammer, Bo karlstens, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112073630</v>
+        <v>112045406</v>
       </c>
       <c r="B39" t="n">
-        <v>88924</v>
+        <v>90682</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5191,52 +5132,42 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>256703</v>
+        <v>2059</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Tallfingersvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Ramaria eosanguinea</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>N om Nedre Tetvasseltjärnen, Dlr</t>
+          <t>Nedre Tetvasseltjärnen (Nedre Tetvasseltjärnen), Dlr</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>491917.2246397196</v>
+        <v>492044</v>
       </c>
       <c r="R39" t="n">
-        <v>6785497.359069696</v>
+        <v>6785564</v>
       </c>
       <c r="S39" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -5265,7 +5196,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -5275,7 +5206,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5284,49 +5215,28 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
-      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
-      </c>
-      <c r="AH39" t="inlineStr">
-        <is>
-          <t>Sandtallskog</t>
-        </is>
-      </c>
-      <c r="AJ39" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK39" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO39" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Janolof Hermansson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Janolof Hermansson, Bengt Oldhammer, Bo karlstens, Birgitta Kvist</t>
+          <t>Bo karlstens, Bengt Oldhammer, Janolof Hermansson, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112045414</v>
+        <v>112073422</v>
       </c>
       <c r="B40" t="n">
-        <v>90689</v>
+        <v>88949</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5335,47 +5245,47 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>5966</v>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Motaggsvamp</t>
-        </is>
+        <v>233195</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Ramaria neoformosa</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr"/>
+          <t>sensu Schild</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="J40" t="inlineStr">
         <is>
           <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Nedre Tetvasseltjärnen (Nedre Tetvasseltjärnen), Dlr</t>
+          <t>N om Nedre Tetvasseltjärnen, Dlr</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>492044.3381435904</v>
+        <v>491996</v>
       </c>
       <c r="R40" t="n">
-        <v>6785564.065369682</v>
+        <v>6785531</v>
       </c>
       <c r="S40" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -5402,39 +5312,50 @@
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>12:36</t>
-        </is>
-      </c>
       <c r="AA40" t="inlineStr">
         <is>
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="AB40" t="inlineStr">
-        <is>
-          <t>12:36</t>
-        </is>
-      </c>
       <c r="AD40" t="b">
         <v>0</v>
       </c>
       <c r="AE40" t="b">
         <v>0</v>
       </c>
+      <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="b">
         <v>0</v>
+      </c>
+      <c r="AH40" t="inlineStr">
+        <is>
+          <t>Sandtallskog</t>
+        </is>
+      </c>
+      <c r="AJ40" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK40" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO40" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Janolof Hermansson</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Bo karlstens, Bengt Oldhammer, Janolof Hermansson, Birgitta Kvist</t>
+          <t>Janolof Hermansson, Bengt Oldhammer, Bo karlstens, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr"/>

--- a/artfynd/A 1135-2023.xlsx
+++ b/artfynd/A 1135-2023.xlsx
@@ -4758,7 +4758,7 @@
         <v>112045302</v>
       </c>
       <c r="B36" t="n">
-        <v>90658</v>
+        <v>90792</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>112045414</v>
       </c>
       <c r="B37" t="n">
-        <v>90689</v>
+        <v>90823</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4986,10 +4986,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112073630</v>
+        <v>112045406</v>
       </c>
       <c r="B38" t="n">
-        <v>88924</v>
+        <v>90816</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4998,52 +4998,42 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>256703</v>
+        <v>2059</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Tallfingersvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Ramaria eosanguinea</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>N om Nedre Tetvasseltjärnen, Dlr</t>
+          <t>Nedre Tetvasseltjärnen (Nedre Tetvasseltjärnen), Dlr</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>491917</v>
+        <v>492044</v>
       </c>
       <c r="R38" t="n">
-        <v>6785497</v>
+        <v>6785564</v>
       </c>
       <c r="S38" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -5070,60 +5060,49 @@
           <t>2023-09-12</t>
         </is>
       </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>12:36</t>
+        </is>
+      </c>
       <c r="AA38" t="inlineStr">
         <is>
           <t>2023-09-12</t>
         </is>
       </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>12:36</t>
+        </is>
+      </c>
       <c r="AD38" t="b">
         <v>0</v>
       </c>
       <c r="AE38" t="b">
         <v>0</v>
       </c>
-      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
-      </c>
-      <c r="AH38" t="inlineStr">
-        <is>
-          <t>Sandtallskog</t>
-        </is>
-      </c>
-      <c r="AJ38" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK38" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO38" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Janolof Hermansson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Janolof Hermansson, Bengt Oldhammer, Bo karlstens, Birgitta Kvist</t>
+          <t>Bo karlstens, Bengt Oldhammer, Janolof Hermansson, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112045406</v>
+        <v>112073630</v>
       </c>
       <c r="B39" t="n">
-        <v>90682</v>
+        <v>89058</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5132,42 +5111,52 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2059</v>
+        <v>256703</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Tallfingersvamp</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Ramaria eosanguinea</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr"/>
+          <t>R.H.Petersen</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Nedre Tetvasseltjärnen (Nedre Tetvasseltjärnen), Dlr</t>
+          <t>N om Nedre Tetvasseltjärnen, Dlr</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>492044</v>
+        <v>491917</v>
       </c>
       <c r="R39" t="n">
-        <v>6785564</v>
+        <v>6785497</v>
       </c>
       <c r="S39" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -5194,39 +5183,50 @@
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>12:36</t>
-        </is>
-      </c>
       <c r="AA39" t="inlineStr">
         <is>
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="AB39" t="inlineStr">
-        <is>
-          <t>12:36</t>
-        </is>
-      </c>
       <c r="AD39" t="b">
         <v>0</v>
       </c>
       <c r="AE39" t="b">
         <v>0</v>
       </c>
+      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
+      </c>
+      <c r="AH39" t="inlineStr">
+        <is>
+          <t>Sandtallskog</t>
+        </is>
+      </c>
+      <c r="AJ39" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK39" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO39" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Janolof Hermansson</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Bo karlstens, Bengt Oldhammer, Janolof Hermansson, Birgitta Kvist</t>
+          <t>Janolof Hermansson, Bengt Oldhammer, Bo karlstens, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>112073422</v>
       </c>
       <c r="B40" t="n">
-        <v>88949</v>
+        <v>89083</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>

--- a/artfynd/A 1135-2023.xlsx
+++ b/artfynd/A 1135-2023.xlsx
@@ -4755,10 +4755,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112045302</v>
+        <v>112073630</v>
       </c>
       <c r="B36" t="n">
-        <v>90792</v>
+        <v>89072</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4767,39 +4767,49 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>4361</v>
+        <v>256703</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Tallfingersvamp</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Ramaria eosanguinea</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
+          <t>R.H.Petersen</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Nedre Tetvasseltjärnen (Nedre Tetvasseltjärnen), Dlr</t>
+          <t>N om Nedre Tetvasseltjärnen, Dlr</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>492044</v>
+        <v>491917</v>
       </c>
       <c r="R36" t="n">
-        <v>6785564</v>
+        <v>6785497</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
@@ -4829,49 +4839,60 @@
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>12:27</t>
-        </is>
-      </c>
       <c r="AA36" t="inlineStr">
         <is>
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="AB36" t="inlineStr">
-        <is>
-          <t>12:27</t>
-        </is>
-      </c>
       <c r="AD36" t="b">
         <v>0</v>
       </c>
       <c r="AE36" t="b">
         <v>0</v>
       </c>
+      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
+      </c>
+      <c r="AH36" t="inlineStr">
+        <is>
+          <t>Sandtallskog</t>
+        </is>
+      </c>
+      <c r="AJ36" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK36" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO36" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Janolof Hermansson</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Bo karlstens, Bengt Oldhammer, Janolof Hermansson, Birgitta Kvist</t>
+          <t>Janolof Hermansson, Bengt Oldhammer, Bo karlstens, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112045414</v>
+        <v>112073422</v>
       </c>
       <c r="B37" t="n">
-        <v>90823</v>
+        <v>89097</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4880,47 +4901,47 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>5966</v>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Motaggsvamp</t>
-        </is>
+        <v>233195</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Ramaria neoformosa</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr"/>
+          <t>sensu Schild</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="J37" t="inlineStr">
         <is>
           <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Nedre Tetvasseltjärnen (Nedre Tetvasseltjärnen), Dlr</t>
+          <t>N om Nedre Tetvasseltjärnen, Dlr</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>492044</v>
+        <v>491996</v>
       </c>
       <c r="R37" t="n">
-        <v>6785564</v>
+        <v>6785531</v>
       </c>
       <c r="S37" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -4947,49 +4968,60 @@
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>12:36</t>
-        </is>
-      </c>
       <c r="AA37" t="inlineStr">
         <is>
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>12:36</t>
-        </is>
-      </c>
       <c r="AD37" t="b">
         <v>0</v>
       </c>
       <c r="AE37" t="b">
         <v>0</v>
       </c>
+      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
+      </c>
+      <c r="AH37" t="inlineStr">
+        <is>
+          <t>Sandtallskog</t>
+        </is>
+      </c>
+      <c r="AJ37" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK37" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO37" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Janolof Hermansson</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Bo karlstens, Bengt Oldhammer, Janolof Hermansson, Birgitta Kvist</t>
+          <t>Janolof Hermansson, Bengt Oldhammer, Bo karlstens, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112045406</v>
+        <v>112045302</v>
       </c>
       <c r="B38" t="n">
-        <v>90816</v>
+        <v>90806</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5002,21 +5034,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>2059</v>
+        <v>4361</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -5033,7 +5065,7 @@
         <v>6785564</v>
       </c>
       <c r="S38" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -5062,7 +5094,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -5072,7 +5104,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5099,10 +5131,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112073630</v>
+        <v>112045414</v>
       </c>
       <c r="B39" t="n">
-        <v>89058</v>
+        <v>90837</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5111,52 +5143,47 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>256703</v>
+        <v>5966</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Tallfingersvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Ramaria eosanguinea</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
           <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>N om Nedre Tetvasseltjärnen, Dlr</t>
+          <t>Nedre Tetvasseltjärnen (Nedre Tetvasseltjärnen), Dlr</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>491917</v>
+        <v>492044</v>
       </c>
       <c r="R39" t="n">
-        <v>6785497</v>
+        <v>6785564</v>
       </c>
       <c r="S39" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -5183,60 +5210,49 @@
           <t>2023-09-12</t>
         </is>
       </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>12:36</t>
+        </is>
+      </c>
       <c r="AA39" t="inlineStr">
         <is>
           <t>2023-09-12</t>
         </is>
       </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>12:36</t>
+        </is>
+      </c>
       <c r="AD39" t="b">
         <v>0</v>
       </c>
       <c r="AE39" t="b">
         <v>0</v>
       </c>
-      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
-      </c>
-      <c r="AH39" t="inlineStr">
-        <is>
-          <t>Sandtallskog</t>
-        </is>
-      </c>
-      <c r="AJ39" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK39" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO39" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Janolof Hermansson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Janolof Hermansson, Bengt Oldhammer, Bo karlstens, Birgitta Kvist</t>
+          <t>Bo karlstens, Bengt Oldhammer, Janolof Hermansson, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112073422</v>
+        <v>112045406</v>
       </c>
       <c r="B40" t="n">
-        <v>89083</v>
+        <v>90830</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5245,47 +5261,42 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>233195</v>
+        <v>2059</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Skrovlig taggsvamp</t>
+        </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Ramaria neoformosa</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>sensu Schild</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>N om Nedre Tetvasseltjärnen, Dlr</t>
+          <t>Nedre Tetvasseltjärnen (Nedre Tetvasseltjärnen), Dlr</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>491996</v>
+        <v>492044</v>
       </c>
       <c r="R40" t="n">
-        <v>6785531</v>
+        <v>6785564</v>
       </c>
       <c r="S40" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -5312,50 +5323,39 @@
           <t>2023-09-12</t>
         </is>
       </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>12:36</t>
+        </is>
+      </c>
       <c r="AA40" t="inlineStr">
         <is>
           <t>2023-09-12</t>
         </is>
       </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>12:36</t>
+        </is>
+      </c>
       <c r="AD40" t="b">
         <v>0</v>
       </c>
       <c r="AE40" t="b">
         <v>0</v>
       </c>
-      <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="b">
         <v>0</v>
-      </c>
-      <c r="AH40" t="inlineStr">
-        <is>
-          <t>Sandtallskog</t>
-        </is>
-      </c>
-      <c r="AJ40" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK40" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO40" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Janolof Hermansson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Janolof Hermansson, Bengt Oldhammer, Bo karlstens, Birgitta Kvist</t>
+          <t>Bo karlstens, Bengt Oldhammer, Janolof Hermansson, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr"/>

--- a/artfynd/A 1135-2023.xlsx
+++ b/artfynd/A 1135-2023.xlsx
@@ -4755,10 +4755,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112073630</v>
+        <v>112045302</v>
       </c>
       <c r="B36" t="n">
-        <v>89072</v>
+        <v>90806</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4767,49 +4767,39 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>256703</v>
+        <v>4361</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tallfingersvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Ramaria eosanguinea</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>N om Nedre Tetvasseltjärnen, Dlr</t>
+          <t>Nedre Tetvasseltjärnen (Nedre Tetvasseltjärnen), Dlr</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>491917</v>
+        <v>492044</v>
       </c>
       <c r="R36" t="n">
-        <v>6785497</v>
+        <v>6785564</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
@@ -4839,60 +4829,49 @@
           <t>2023-09-12</t>
         </is>
       </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>12:27</t>
+        </is>
+      </c>
       <c r="AA36" t="inlineStr">
         <is>
           <t>2023-09-12</t>
         </is>
       </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>12:27</t>
+        </is>
+      </c>
       <c r="AD36" t="b">
         <v>0</v>
       </c>
       <c r="AE36" t="b">
         <v>0</v>
       </c>
-      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
-      </c>
-      <c r="AH36" t="inlineStr">
-        <is>
-          <t>Sandtallskog</t>
-        </is>
-      </c>
-      <c r="AJ36" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK36" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO36" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Janolof Hermansson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Janolof Hermansson, Bengt Oldhammer, Bo karlstens, Birgitta Kvist</t>
+          <t>Bo karlstens, Bengt Oldhammer, Janolof Hermansson, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112073422</v>
+        <v>112073630</v>
       </c>
       <c r="B37" t="n">
-        <v>89097</v>
+        <v>89072</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4905,21 +4884,26 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>233195</v>
+        <v>256703</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Tallfingersvamp</t>
+        </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Ramaria neoformosa</t>
+          <t>Ramaria eosanguinea</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>sensu Schild</t>
+          <t>R.H.Petersen</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -4935,10 +4919,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>491996</v>
+        <v>491917</v>
       </c>
       <c r="R37" t="n">
-        <v>6785531</v>
+        <v>6785497</v>
       </c>
       <c r="S37" t="n">
         <v>5</v>
@@ -5018,10 +5002,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112045302</v>
+        <v>112045414</v>
       </c>
       <c r="B38" t="n">
-        <v>90806</v>
+        <v>90837</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5034,24 +5018,29 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4361</v>
+        <v>5966</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
@@ -5065,7 +5054,7 @@
         <v>6785564</v>
       </c>
       <c r="S38" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -5094,7 +5083,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -5104,7 +5093,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5131,10 +5120,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112045414</v>
+        <v>112073422</v>
       </c>
       <c r="B39" t="n">
-        <v>90837</v>
+        <v>89097</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5143,47 +5132,47 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>5966</v>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Motaggsvamp</t>
-        </is>
+        <v>233195</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Ramaria neoformosa</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr"/>
+          <t>sensu Schild</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="J39" t="inlineStr">
         <is>
           <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Nedre Tetvasseltjärnen (Nedre Tetvasseltjärnen), Dlr</t>
+          <t>N om Nedre Tetvasseltjärnen, Dlr</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>492044</v>
+        <v>491996</v>
       </c>
       <c r="R39" t="n">
-        <v>6785564</v>
+        <v>6785531</v>
       </c>
       <c r="S39" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -5210,39 +5199,50 @@
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>12:36</t>
-        </is>
-      </c>
       <c r="AA39" t="inlineStr">
         <is>
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="AB39" t="inlineStr">
-        <is>
-          <t>12:36</t>
-        </is>
-      </c>
       <c r="AD39" t="b">
         <v>0</v>
       </c>
       <c r="AE39" t="b">
         <v>0</v>
       </c>
+      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
+      </c>
+      <c r="AH39" t="inlineStr">
+        <is>
+          <t>Sandtallskog</t>
+        </is>
+      </c>
+      <c r="AJ39" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK39" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO39" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Janolof Hermansson</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Bo karlstens, Bengt Oldhammer, Janolof Hermansson, Birgitta Kvist</t>
+          <t>Janolof Hermansson, Bengt Oldhammer, Bo karlstens, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
